--- a/data/trans_camb/P3A_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R2-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-0.2794189916647156</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3.83051849968319</v>
+        <v>3.830518499683191</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>1.973275995196999</v>
@@ -655,7 +655,7 @@
         <v>0.8314148700678998</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>5.001265201717587</v>
+        <v>5.001265201717585</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.045724384212123</v>
@@ -664,7 +664,7 @@
         <v>0.27452011600358</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>4.43030771259472</v>
+        <v>4.430307712594721</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3969876075780389</v>
+        <v>0.4425555694465102</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.771835669059697</v>
+        <v>-1.785696616707596</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.954913661162998</v>
+        <v>2.137974617474639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1020785778393866</v>
+        <v>0.141949370947818</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.7985469703994732</v>
+        <v>-0.7233717500305431</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.130546035338323</v>
+        <v>3.169832266005307</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.804287843079091</v>
+        <v>0.7632096020284024</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.8428338156224535</v>
+        <v>-0.8975467257390629</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.14957081720561</v>
+        <v>3.084317704707025</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.061877576040497</v>
+        <v>4.051271793260934</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.215717227698387</v>
+        <v>1.095302563073431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.027886125397481</v>
+        <v>6.026672524234209</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.923098470435016</v>
+        <v>4.012540332101668</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.550787782587111</v>
+        <v>2.812108491627435</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>6.681605548474432</v>
+        <v>6.763659721275092</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.407954921128568</v>
+        <v>3.352936025824653</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.402451822527474</v>
+        <v>1.493816260847684</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>5.781965333020792</v>
+        <v>5.668926181860416</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.4089165063682047</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>2.459782675693798</v>
+        <v>2.459782675693797</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.9579058470900113</v>
@@ -769,7 +769,7 @@
         <v>0.1285434275961539</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.074481633525081</v>
+        <v>2.074481633525082</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1403045228954531</v>
+        <v>0.1086052927307801</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5830899898505081</v>
+        <v>-0.5856978454170899</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5640168986009725</v>
+        <v>0.6145989909614478</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.00401971890143923</v>
+        <v>0.03762411317275634</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.324712961518077</v>
+        <v>-0.2961238304041622</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9471961992365996</v>
+        <v>0.9625100921285707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2845106700386022</v>
+        <v>0.253094000369083</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.325863084643247</v>
+        <v>-0.349831389190889</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>1.052076296218694</v>
+        <v>1.037938538399619</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.21347676883917</v>
+        <v>2.538535857644402</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.9510584926389583</v>
+        <v>0.7010309869991881</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>4.333067005599846</v>
+        <v>3.855253351178517</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.000921484846728</v>
+        <v>2.994555027719918</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.993966829798887</v>
+        <v>2.007502370717598</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.302005213747454</v>
+        <v>5.150610242815679</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.998266413277481</v>
+        <v>2.134565468595012</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8509638845729978</v>
+        <v>0.9492203795737311</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.503959369259072</v>
+        <v>3.578664605791559</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-1.483012088782699</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1547166544509315</v>
+        <v>0.1547166544509308</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.481496579996284</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.397699367439361</v>
+        <v>-1.328543881562107</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.097874681966196</v>
+        <v>-3.146382581555703</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.498163949160059</v>
+        <v>-1.704134346468917</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9614145026130227</v>
+        <v>1.067678199200497</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.4367655515039441</v>
+        <v>-0.4464832609929656</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.071664723177031</v>
+        <v>2.077751194825352</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4135565428238283</v>
+        <v>0.2581128068508674</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.294371805881816</v>
+        <v>-1.414669415551099</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7144104583081516</v>
+        <v>0.6076295298865626</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.193074454591983</v>
+        <v>2.415276360216817</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.03802029906135179</v>
+        <v>0.09963063667784985</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.055282251522451</v>
+        <v>2.024221032086974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.163409156183508</v>
+        <v>4.011875333103768</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.304584444514234</v>
+        <v>2.218264613371862</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.699249905183811</v>
+        <v>4.762944342738215</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.73032201987242</v>
+        <v>2.718858576424554</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.7895455662510036</v>
+        <v>0.7458422990006103</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.995019877658265</v>
+        <v>2.946818565742778</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.4096701124296292</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.04273922627001354</v>
+        <v>0.04273922627001335</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.512867077567807</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3089114462388398</v>
+        <v>-0.2956623201419158</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6875852861354939</v>
+        <v>-0.6747044005778291</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3536462537720304</v>
+        <v>-0.3999459116719351</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3412109433259514</v>
+        <v>0.416695965498399</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2546218621277507</v>
+        <v>-0.2312051338690624</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8289088276072852</v>
+        <v>0.7180459183094763</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1260093445084652</v>
+        <v>0.06631658036730641</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4092307509192084</v>
+        <v>-0.4313005267756698</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2071396842351867</v>
+        <v>0.1758258497339134</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7822433296990037</v>
+        <v>0.864152687181591</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.002940760005879241</v>
+        <v>0.09195529716295094</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.7612744092249351</v>
+        <v>0.8052323896485891</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.730953201566158</v>
+        <v>3.628052876945397</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.012378871240275</v>
+        <v>2.173394264148544</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.589552800791841</v>
+        <v>4.593172057311161</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.326067237401499</v>
+        <v>1.214610270676097</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4083001533717018</v>
+        <v>0.3509226273202483</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.450434295151064</v>
+        <v>1.406960444855461</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>-1.382377464567524</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.2490211604165196</v>
+        <v>0.2490211604165182</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.3068203092126687</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.254110079528759</v>
+        <v>-3.307161020387147</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.228141763252036</v>
+        <v>-3.111979118672059</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.795103299973402</v>
+        <v>-1.798790694381645</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.599976450531479</v>
+        <v>-1.730109642527813</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.911541168599068</v>
+        <v>-2.792037072034222</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3564634626370437</v>
+        <v>-0.3118746073612592</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.075682398439232</v>
+        <v>-1.991546158934639</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.459117883560427</v>
+        <v>-2.493106130508843</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.4510059100225678</v>
+        <v>-0.4369779543900751</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4030983082021049</v>
+        <v>0.5409399372840132</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4378678415802316</v>
+        <v>0.4870841492839761</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.35599766409006</v>
+        <v>2.162658659990866</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.436390246552534</v>
+        <v>2.342755528377695</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.01810456250319</v>
+        <v>0.9459140144784427</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.420828083987674</v>
+        <v>3.539030344316026</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8507324108876928</v>
+        <v>0.8209227003566189</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2135446165752688</v>
+        <v>0.09733225071395152</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.329979688847754</v>
+        <v>2.350407743853921</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>-0.3792632514111322</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.06832039539887123</v>
+        <v>0.06832039539887086</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.0915299655709005</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.7008659585048921</v>
+        <v>-0.6989639339198126</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.688051374811198</v>
+        <v>-0.6581444300511926</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.386233732368519</v>
+        <v>-0.3935040024129451</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3851452466217191</v>
+        <v>-0.419785329191435</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6321563849666342</v>
+        <v>-0.6392678374342109</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.09611927875348932</v>
+        <v>-0.08633918282289833</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4781540365916661</v>
+        <v>-0.4680690704098767</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5754459255580237</v>
+        <v>-0.5637637952476694</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1141431007491298</v>
+        <v>-0.1143609780905012</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2012497806807508</v>
+        <v>0.2272382888260286</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2039613851237445</v>
+        <v>0.2919549878455558</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9032165160384001</v>
+        <v>0.8895219592169334</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.062901907919893</v>
+        <v>0.9564414861635602</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4432770085955662</v>
+        <v>0.3757482730750049</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.511181135335044</v>
+        <v>1.65079755098758</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3190602479113248</v>
+        <v>0.3062999934708629</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.08133343874902786</v>
+        <v>0.06385378286720644</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.8298277630612304</v>
+        <v>0.8561507437083175</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.877212258834089</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-1.17429194306253</v>
+        <v>-1.174291943062528</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.8295248849520604</v>
@@ -1297,7 +1297,7 @@
         <v>-1.086411334471999</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1.309339121682937</v>
+        <v>1.309339121682936</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-0.3889317991370794</v>
@@ -1306,7 +1306,7 @@
         <v>-1.935148110749603</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.137674186587481</v>
+        <v>0.1376741865874789</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.902084340199622</v>
+        <v>-3.750437812263018</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.830420266477343</v>
+        <v>-4.847317096107802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.316332541366042</v>
+        <v>-3.199997465401291</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.195330254812093</v>
+        <v>-1.119315058885104</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.116486368212629</v>
+        <v>-3.007793749464303</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.4704238705289064</v>
+        <v>-0.7883617498813457</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.904879068570005</v>
+        <v>-1.841396315248319</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.267274993141442</v>
+        <v>-3.23624355648777</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-1.302137538610361</v>
+        <v>-1.296992636576191</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2594842928794479</v>
+        <v>0.1674971567440534</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-1.047682536240518</v>
+        <v>-1.010419015909522</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6449618845180812</v>
+        <v>0.7929686527140123</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.870242466913121</v>
+        <v>3.15449920125925</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.7673304717172316</v>
+        <v>0.7710336332941278</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.145073193835461</v>
+        <v>2.904337820775648</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.013309448724215</v>
+        <v>1.047995960596328</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.5116376068395477</v>
+        <v>-0.5615405342976332</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.393320169562673</v>
+        <v>1.462856534751949</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.4721604738420356</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1927053656062087</v>
+        <v>-0.1927053656062085</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.1606804057406678</v>
@@ -1402,7 +1402,7 @@
         <v>-0.2104397555647888</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.253621253732855</v>
+        <v>0.2536212537328548</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.06938675970612314</v>
@@ -1411,7 +1411,7 @@
         <v>-0.3452370242141501</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.02456154452702548</v>
+        <v>0.02456154452702511</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5390584807874531</v>
+        <v>-0.5202915508903596</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6684072954123672</v>
+        <v>-0.6738221988894642</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4471946384826812</v>
+        <v>-0.4514453148111647</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2234791444777306</v>
+        <v>-0.1965670887850904</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5014580243102567</v>
+        <v>-0.4726469360054703</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.0683995307869262</v>
+        <v>-0.1230999467435391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2957162402391869</v>
+        <v>-0.3009479895797077</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5151335414117114</v>
+        <v>-0.509703722287928</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1902036529741975</v>
+        <v>-0.2013518778886986</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.05720929522747433</v>
+        <v>0.04479158882631713</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1690492558153744</v>
+        <v>-0.1805316581435663</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1381006052523233</v>
+        <v>0.1784220208741648</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.6838736625568234</v>
+        <v>0.7245047731768742</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1994097333358273</v>
+        <v>0.2224745098917619</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7950412386447188</v>
+        <v>0.706761547221564</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2084473549028547</v>
+        <v>0.2128443613768539</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.096382525819457</v>
+        <v>-0.09831141840171613</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2872811666126905</v>
+        <v>0.3106106623569298</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-1.616142739494327</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.5276091159381602</v>
+        <v>0.5276091159381608</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.401993680085959</v>
@@ -1511,7 +1511,7 @@
         <v>-0.1289396081739221</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.695647204959252</v>
+        <v>2.695647204959253</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>0.6050059727190499</v>
@@ -1520,7 +1520,7 @@
         <v>-0.8592785830779558</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.636169568027223</v>
+        <v>1.636169568027224</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.143971172569003</v>
+        <v>-1.179344992818487</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-2.505066820402597</v>
+        <v>-2.489460764775993</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.4537704191247547</v>
+        <v>-0.3959733848469785</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.5141700633295342</v>
+        <v>0.3554913243356491</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.9483144367809578</v>
+        <v>-0.9095584293896718</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>1.870794184458344</v>
+        <v>1.859001094297126</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1162936865105029</v>
+        <v>-0.06802253957679644</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.469076183461253</v>
+        <v>-1.49565350616565</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>1.003386001584804</v>
+        <v>0.9320113668949465</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8336542986758422</v>
+        <v>0.8426330623551734</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.7219391709474802</v>
+        <v>-0.761443768064168</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.484071710783472</v>
+        <v>1.616422181636273</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.410843693058333</v>
+        <v>2.288721414206969</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7490940780422934</v>
+        <v>0.7838956237123308</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>3.634002468912271</v>
+        <v>3.521003882701536</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>1.436700570806217</v>
+        <v>1.225708976882703</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.1769777525493187</v>
+        <v>-0.260779926124327</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.306841237371224</v>
+        <v>2.284795083909728</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3997350877302417</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1304982976397278</v>
+        <v>0.130498297639728</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.4451464510609351</v>
@@ -1616,7 +1616,7 @@
         <v>-0.04093956327698271</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.8558938628927117</v>
+        <v>0.855893862892712</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1685430343014853</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2393784958045249</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.4558053904620165</v>
+        <v>0.4558053904620167</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2560954599300507</v>
+        <v>-0.2628839817196687</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5492187067231898</v>
+        <v>-0.5542972089361875</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1024881233594571</v>
+        <v>-0.08490934646222162</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.146432114604519</v>
+        <v>0.09394360423152689</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.2634571038571901</v>
+        <v>-0.2711243536727967</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5068970771080428</v>
+        <v>0.5151985440260679</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.03072359898917399</v>
+        <v>-0.01975910298173775</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.3809603535715476</v>
+        <v>-0.3792706150370664</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2411244227589006</v>
+        <v>0.238938172259823</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2324129557242869</v>
+        <v>0.2403854097652737</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1988699108447619</v>
+        <v>-0.2230403895104731</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4193181856829457</v>
+        <v>0.4478920214555991</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8981160550892044</v>
+        <v>0.8288435993348844</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2767024157188369</v>
+        <v>0.2880697264881199</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.361533895686631</v>
+        <v>1.30433173970042</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.4425223188167802</v>
+        <v>0.3853043623848409</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.05768806108227193</v>
+        <v>-0.0779867840350869</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.694318043831647</v>
+        <v>0.7072040002776586</v>
       </c>
     </row>
     <row r="34">
